--- a/data/trans_camb/IP19C01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C01-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,69</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,57</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,51</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,8</t>
+          <t>-7,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,34</t>
+          <t>-8,01</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,25</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,2</t>
+          <t>-4,85</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,38</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,32</t>
+          <t>0,56</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 15,15</t>
+          <t>-10,88; 6,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 15,95</t>
+          <t>-9,14; 6,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,86; 23,86</t>
+          <t>-7,88; 9,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 21,43</t>
+          <t>-17,27; 1,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,9; 22,42</t>
+          <t>-17,18; 0,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,67; 31,56</t>
+          <t>-9,69; 9,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,95; 16,4</t>
+          <t>-10,96; 1,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,48; 17,2</t>
+          <t>-11,27; 0,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,82; 26,44</t>
+          <t>-5,9; 6,8</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>-2,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>-2,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,91%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>-9,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,58%</t>
+          <t>-9,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>44,18%</t>
+          <t>-0,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>-5,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>-5,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>34,85%</t>
+          <t>0,69%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 24,72</t>
+          <t>-12,74; 8,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 26,33</t>
+          <t>-10,74; 8,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,98; 39,39</t>
+          <t>-9,32; 12,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,34; 40,76</t>
+          <t>-20,47; 1,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,78; 42,22</t>
+          <t>-19,96; 0,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,44; 60,27</t>
+          <t>-11,44; 12,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,52; 28,2</t>
+          <t>-12,95; 1,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,55; 29,67</t>
+          <t>-13,64; 0,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,66; 45,85</t>
+          <t>-6,99; 8,69</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>17,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,7</t>
+          <t>13,8</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-8,01</t>
+          <t>16,34</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>25,25</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>11,2</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-4,82</t>
+          <t>12,38</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>21,32</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 6,77</t>
+          <t>1,44; 15,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 6,56</t>
+          <t>1,91; 15,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 9,58</t>
+          <t>10,86; 23,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,27; 1,36</t>
+          <t>6,13; 21,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 0,54</t>
+          <t>8,9; 22,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 9,39</t>
+          <t>18,67; 31,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 1,12</t>
+          <t>5,95; 16,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 0,84</t>
+          <t>7,48; 17,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 6,8</t>
+          <t>16,82; 26,44</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,64%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,13%</t>
+          <t>13,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,51%</t>
+          <t>24,15%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-9,89%</t>
+          <t>28,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,04%</t>
+          <t>44,18%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-5,98%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-5,94%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>34,85%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 8,84</t>
+          <t>2,14; 24,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 8,55</t>
+          <t>2,76; 26,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 12,43</t>
+          <t>15,98; 39,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,47; 1,73</t>
+          <t>10,34; 40,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 0,79</t>
+          <t>14,78; 42,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 12,25</t>
+          <t>30,44; 60,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 1,4</t>
+          <t>9,52; 28,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 0,99</t>
+          <t>11,55; 29,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 8,69</t>
+          <t>26,66; 45,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C01-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,35</t>
+          <t>-24,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,04</t>
+          <t>-18,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>19,67</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>-7,4</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-7,26</t>
+          <t>-18,23</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-5,93</t>
+          <t>13,25</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-12,42</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 9,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-35,39; 9,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 10,06</t>
+          <t>-64,73; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,4; 12,19</t>
+          <t>-59,92; 40,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-28,92; 14,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 13,11</t>
+          <t>-49,77; 38,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 5,52</t>
+          <t>-64,24; 24,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 7,55</t>
+          <t>0,0; 63,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 7,29</t>
+          <t>-37,91; 25,5</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-10,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,02%</t>
+          <t>-24,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,21%</t>
+          <t>-22,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,54%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,55%</t>
+          <t>-9,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,26%</t>
+          <t>-21,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-6,74%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-5,49%</t>
+          <t>-14,32%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-36,94; 10,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-39,52; 11,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,89; 12,01</t>
+          <t>-64,73; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,32; 14,95</t>
+          <t>-79,12; 67,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,37; 18,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,74; 16,44</t>
+          <t>-53,29; 69,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,88; 6,54</t>
+          <t>-68,04; 35,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,94; 8,89</t>
+          <t>0,0; 176,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-20,21; 9,27</t>
+          <t>-41,74; 33,55</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-3,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,7</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,01</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,82</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,01</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 6,77</t>
+          <t>-12,13; 6,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 6,56</t>
+          <t>-14,39; 5,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 9,58</t>
+          <t>-9,63; 10,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,27; 1,36</t>
+          <t>-16,03; 4,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 0,54</t>
+          <t>-12,55; 7,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 9,39</t>
+          <t>-10,21; 9,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 1,12</t>
+          <t>-11,55; 2,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 0,84</t>
+          <t>-11,19; 2,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 6,8</t>
+          <t>-6,73; 7,18</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,64%</t>
+          <t>-3,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,13%</t>
+          <t>-5,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,51%</t>
+          <t>-6,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-9,89%</t>
+          <t>-4,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,04%</t>
+          <t>-0,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-5,98%</t>
+          <t>-4,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-5,94%</t>
+          <t>-4,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,01%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 8,84</t>
+          <t>-13,6; 8,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 8,55</t>
+          <t>-16,25; 6,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 12,43</t>
+          <t>-10,84; 12,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,47; 1,73</t>
+          <t>-18,07; 5,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 0,79</t>
+          <t>-14,54; 8,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 12,25</t>
+          <t>-11,46; 11,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 1,4</t>
+          <t>-13,3; 2,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 0,99</t>
+          <t>-12,86; 3,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 8,69</t>
+          <t>-7,77; 8,93</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,69</t>
+          <t>-7,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,57</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,51</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,8</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>16,34</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>25,25</t>
+          <t>12,32</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,2</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,38</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,32</t>
+          <t>7,01</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 15,15</t>
+          <t>-15,93; 1,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 15,95</t>
+          <t>-9,71; 6,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,86; 23,86</t>
+          <t>-6,19; 10,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,13; 21,43</t>
+          <t>-5,94; 13,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,9; 22,42</t>
+          <t>-5,46; 13,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,67; 31,56</t>
+          <t>3,05; 22,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,95; 16,4</t>
+          <t>-8,2; 4,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,48; 17,2</t>
+          <t>-5,1; 6,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,82; 26,44</t>
+          <t>0,69; 13,67</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>-9,33%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>-1,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>26,91%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>28,58%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>44,18%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>-2,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>34,85%</t>
+          <t>9,28%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,14; 24,72</t>
+          <t>-19,26; 1,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,76; 26,33</t>
+          <t>-11,62; 9,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,98; 39,39</t>
+          <t>-7,24; 13,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,34; 40,76</t>
+          <t>-7,92; 20,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,78; 42,22</t>
+          <t>-7,31; 21,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,44; 60,27</t>
+          <t>4,01; 34,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,52; 28,2</t>
+          <t>-10,33; 6,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,55; 29,67</t>
+          <t>-6,45; 9,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,66; 45,85</t>
+          <t>0,74; 19,04</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>15,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>10,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,15</t>
+          <t>22,5</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,96</t>
+          <t>12,49</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>15,46</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,81</t>
+          <t>27,18</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>13,95</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>12,8</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13,46</t>
+          <t>24,78</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 9,78</t>
+          <t>7,46; 24,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 9,83</t>
+          <t>1,94; 20,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,06; 16,27</t>
+          <t>13,66; 30,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 11,17</t>
+          <t>2,7; 20,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,01; 13,36</t>
+          <t>6,87; 25,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,63; 21,07</t>
+          <t>18,2; 34,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,33; 9,07</t>
+          <t>7,91; 20,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,2; 9,7</t>
+          <t>6,86; 18,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,73; 16,96</t>
+          <t>19,53; 30,43</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>37,8%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>23,1%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>28,6%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>50,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>43,57%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 14,23</t>
+          <t>11,76; 43,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 14,53</t>
+          <t>2,94; 36,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,98; 23,72</t>
+          <t>21,29; 56,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,7</t>
+          <t>4,89; 42,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,95; 21,28</t>
+          <t>11,69; 51,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>15,31; 33,39</t>
+          <t>30,97; 71,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,91; 13,51</t>
+          <t>13,47; 38,85</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,11; 14,59</t>
+          <t>11,69; 35,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,76; 25,57</t>
+          <t>32,55; 56,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4,59</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4,54</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>11,15</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5,96</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>7,4</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>15,81</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5,26</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5,94</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>13,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 9,77</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 9,76</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6,16; 15,94</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 12,11</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1,99; 13,04</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>10,2; 20,71</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 9,11</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2,12; 10,03</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>9,49; 17,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>6,43%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>6,36%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>15,62%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>9,0%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>11,19%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>23,9%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>7,65%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>8,63%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>19,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 14,11</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 14,18</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>8,36; 23,48</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 19,25</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2,73; 20,31</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>14,88; 32,97</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1,94; 13,55</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>3,01; 15,1</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>13,34; 25,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP19C01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C01-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-64,73; 0,0</t>
+          <t>-62,97; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-59,92; 40,04</t>
+          <t>-60,28; 38,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,22 +710,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-49,77; 38,37</t>
+          <t>-49,7; 39,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-64,24; 24,17</t>
+          <t>-65,98; 23,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,55</t>
+          <t>0,0; 61,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-37,91; 25,5</t>
+          <t>-40,34; 27,2</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-64,73; 0,0</t>
+          <t>-62,97; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-79,12; 67,01</t>
+          <t>-79,14; 62,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,22 +816,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,29; 69,29</t>
+          <t>-51,79; 83,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-68,04; 35,36</t>
+          <t>-76,92; 33,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 176,76</t>
+          <t>0,0; 161,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-41,74; 33,55</t>
+          <t>-44,26; 34,07</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 6,49</t>
+          <t>-12,81; 6,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 5,15</t>
+          <t>-14,82; 4,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 10,27</t>
+          <t>-9,44; 9,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 4,83</t>
+          <t>-16,05; 4,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 7,17</t>
+          <t>-14,22; 5,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 9,32</t>
+          <t>-9,92; 9,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 2,39</t>
+          <t>-11,09; 2,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 2,76</t>
+          <t>-11,21; 3,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 7,18</t>
+          <t>-7,05; 7,03</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 8,25</t>
+          <t>-14,55; 8,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 6,26</t>
+          <t>-16,98; 5,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 12,51</t>
+          <t>-10,71; 11,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 5,98</t>
+          <t>-18,24; 5,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 8,99</t>
+          <t>-15,87; 7,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 11,75</t>
+          <t>-11,48; 12,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 2,84</t>
+          <t>-12,55; 3,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 3,37</t>
+          <t>-13,01; 3,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 8,93</t>
+          <t>-8,09; 8,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 1,09</t>
+          <t>-16,37; 1,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 6,84</t>
+          <t>-9,66; 6,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 10,54</t>
+          <t>-5,74; 10,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 13,15</t>
+          <t>-5,56; 14,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 13,69</t>
+          <t>-5,13; 13,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,05; 22,34</t>
+          <t>2,73; 23,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 4,51</t>
+          <t>-8,44; 4,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 6,89</t>
+          <t>-5,39; 7,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 13,67</t>
+          <t>0,81; 13,37</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 1,38</t>
+          <t>-19,52; 1,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 9,11</t>
+          <t>-11,63; 9,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 13,91</t>
+          <t>-6,81; 14,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 20,34</t>
+          <t>-7,48; 22,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 21,43</t>
+          <t>-7,0; 21,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,01; 34,64</t>
+          <t>3,28; 35,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 6,34</t>
+          <t>-10,73; 6,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 9,78</t>
+          <t>-6,8; 10,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,74; 19,04</t>
+          <t>0,98; 18,7</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,46; 24,04</t>
+          <t>7,73; 24,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,94; 20,17</t>
+          <t>1,63; 19,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,66; 30,33</t>
+          <t>15,34; 30,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 20,73</t>
+          <t>3,49; 21,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,87; 25,06</t>
+          <t>6,22; 25,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,2; 34,8</t>
+          <t>18,65; 34,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,91; 20,44</t>
+          <t>8,15; 20,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,86; 18,97</t>
+          <t>6,4; 19,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,53; 30,43</t>
+          <t>18,97; 30,29</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,76; 43,95</t>
+          <t>12,13; 44,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,94; 36,11</t>
+          <t>2,59; 35,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,29; 56,33</t>
+          <t>23,96; 57,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,89; 42,31</t>
+          <t>6,16; 44,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,69; 51,05</t>
+          <t>11,05; 51,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>30,97; 71,93</t>
+          <t>31,76; 73,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,47; 38,85</t>
+          <t>13,66; 37,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,69; 35,69</t>
+          <t>10,51; 35,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>32,55; 56,5</t>
+          <t>31,49; 56,77</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 9,77</t>
+          <t>-0,62; 10,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 9,76</t>
+          <t>-0,6; 9,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,16; 15,94</t>
+          <t>5,93; 15,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,21; 12,11</t>
+          <t>0,15; 11,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,99; 13,04</t>
+          <t>1,41; 13,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10,2; 20,71</t>
+          <t>10,31; 21,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,28; 9,11</t>
+          <t>1,58; 9,43</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,12; 10,03</t>
+          <t>1,97; 10,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,49; 17,23</t>
+          <t>9,51; 17,31</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 14,11</t>
+          <t>-0,86; 14,78</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 14,18</t>
+          <t>-0,85; 14,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>8,36; 23,48</t>
+          <t>8,27; 23,31</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,3; 19,25</t>
+          <t>-0,15; 18,39</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>2,73; 20,31</t>
+          <t>2,05; 20,84</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>14,88; 32,97</t>
+          <t>14,92; 33,91</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>1,94; 13,55</t>
+          <t>2,18; 14,2</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>3,01; 15,1</t>
+          <t>2,81; 15,39</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>13,34; 25,87</t>
+          <t>13,4; 25,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C01-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-18,19</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19,67</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-8,38</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-24,1</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-18,19</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>19,67</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,4</t>
+          <t>-24,98</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-12,42</t>
+          <t>-13,33</t>
         </is>
       </c>
     </row>
@@ -685,24 +685,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-59,76; 40,57</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-51,44; 40,2</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-62,97; 0,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-60,28; 38,71</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -710,22 +710,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-49,7; 39,97</t>
+          <t>-63,81; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-65,98; 23,55</t>
+          <t>-65,96; 22,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,77</t>
+          <t>0,0; 51,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-40,34; 27,2</t>
+          <t>-38,68; 26,07</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-22,64%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>24,49%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-10,43%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-24,1%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-22,64%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>24,49%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,21%</t>
+          <t>-24,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-14,32%</t>
+          <t>-15,37%</t>
         </is>
       </c>
     </row>
@@ -791,24 +791,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-79,12; 70,52</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-53,89; 76,98</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-62,97; 0,0</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-79,14; 62,99</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -816,22 +816,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,79; 83,51</t>
+          <t>-63,81; 0,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-76,92; 33,84</t>
+          <t>-77,29; 31,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 161,46</t>
+          <t>0,0; 105,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-44,26; 34,07</t>
+          <t>-41,78; 32,21</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-5,38</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-3,53</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-3,23</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-4,56</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-5,38</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-3,53</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,16</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 6,61</t>
+          <t>-15,54; 4,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 4,79</t>
+          <t>-14,39; 6,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 9,48</t>
+          <t>-10,92; 9,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 4,31</t>
+          <t>-12,58; 5,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 5,81</t>
+          <t>-14,38; 4,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 9,71</t>
+          <t>-10,59; 9,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 2,89</t>
+          <t>-11,53; 2,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 3,15</t>
+          <t>-10,64; 3,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 7,03</t>
+          <t>-7,05; 6,96</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-6,4%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-4,2%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-0,43%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-3,82%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-5,39%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,4%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-6,4%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-4,2%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,47%</t>
+          <t>-0,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,01%</t>
+          <t>-0,19%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 8,23</t>
+          <t>-17,75; 5,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 5,75</t>
+          <t>-16,73; 7,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 11,82</t>
+          <t>-12,53; 11,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 5,34</t>
+          <t>-14,2; 7,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 7,48</t>
+          <t>-16,73; 5,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 12,15</t>
+          <t>-12,05; 11,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 3,91</t>
+          <t>-13,05; 3,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 3,97</t>
+          <t>-12,21; 4,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 8,66</t>
+          <t>-8,22; 8,55</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>4,44</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,83</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11,58</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-7,5</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-1,34</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,06</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,44</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3,83</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>12,32</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>6,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 1,46</t>
+          <t>-5,07; 14,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 6,91</t>
+          <t>-5,46; 13,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 10,96</t>
+          <t>-0,06; 21,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 14,45</t>
+          <t>-15,87; 1,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 13,73</t>
+          <t>-9,36; 6,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,73; 23,0</t>
+          <t>-6,72; 10,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 4,65</t>
+          <t>-8,31; 5,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 7,43</t>
+          <t>-4,88; 8,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 13,37</t>
+          <t>-0,25; 13,43</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>6,31%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5,43%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>16,44%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-9,33%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-1,67%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,57%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,31%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>5,43%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>8,81%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 1,82</t>
+          <t>-6,48; 23,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 9,08</t>
+          <t>-7,21; 21,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 14,47</t>
+          <t>0,18; 33,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 22,3</t>
+          <t>-18,72; 2,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 21,37</t>
+          <t>-11,09; 9,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,28; 35,71</t>
+          <t>-8,06; 13,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 6,4</t>
+          <t>-10,48; 8,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 10,48</t>
+          <t>-6,05; 11,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,98; 18,7</t>
+          <t>-0,27; 19,06</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>12,49</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>15,46</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>27,03</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>15,75</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>10,3</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>22,5</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>12,49</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>15,46</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,18</t>
+          <t>22,43</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>24,78</t>
+          <t>24,69</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,73; 24,63</t>
+          <t>4,39; 22,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,63; 19,17</t>
+          <t>7,08; 24,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,34; 30,92</t>
+          <t>18,99; 35,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,49; 21,79</t>
+          <t>7,32; 23,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,22; 25,22</t>
+          <t>1,28; 18,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,65; 34,96</t>
+          <t>14,7; 30,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,15; 20,1</t>
+          <t>8,53; 19,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,4; 19,23</t>
+          <t>6,14; 18,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,97; 30,29</t>
+          <t>19,05; 30,61</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>23,1%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>28,6%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>49,98%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>26,46%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>17,31%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>37,8%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>23,1%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>28,6%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>50,26%</t>
+          <t>37,69%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>43,57%</t>
+          <t>43,4%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,13; 44,87</t>
+          <t>7,44; 45,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,59; 35,19</t>
+          <t>12,2; 48,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,96; 57,43</t>
+          <t>32,94; 72,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,16; 44,5</t>
+          <t>11,29; 43,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,05; 51,42</t>
+          <t>2,01; 33,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>31,76; 73,22</t>
+          <t>23,55; 55,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,66; 37,81</t>
+          <t>14,26; 37,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,51; 35,78</t>
+          <t>10,24; 34,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31,49; 56,77</t>
+          <t>31,36; 56,68</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>5,96</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7,4</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>15,5</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>4,59</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>4,54</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>11,15</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>5,96</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>7,4</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,81</t>
+          <t>11,03</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>13,46</t>
+          <t>13,27</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 10,1</t>
+          <t>-0,07; 11,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 9,67</t>
+          <t>2,01; 13,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,93; 15,83</t>
+          <t>9,99; 20,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,15; 11,64</t>
+          <t>-1,05; 9,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,41; 13,09</t>
+          <t>-1,1; 9,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10,31; 21,36</t>
+          <t>5,87; 16,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,58; 9,43</t>
+          <t>1,33; 9,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,97; 10,16</t>
+          <t>2,2; 9,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,51; 17,31</t>
+          <t>9,37; 16,91</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>9,0%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>11,19%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>23,43%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>6,43%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>6,36%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>15,62%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>9,0%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>11,19%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>19,28%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 14,78</t>
+          <t>0,0; 17,7</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 14,16</t>
+          <t>2,95; 21,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>8,27; 23,31</t>
+          <t>14,47; 32,73</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 18,39</t>
+          <t>-1,45; 14,23</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>2,05; 20,84</t>
+          <t>-1,2; 14,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>14,92; 33,91</t>
+          <t>7,84; 23,68</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>2,18; 14,2</t>
+          <t>1,91; 13,51</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2,81; 15,39</t>
+          <t>3,11; 14,59</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>13,4; 25,93</t>
+          <t>13,38; 25,29</t>
         </is>
       </c>
     </row>
